--- a/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. I apologize. First of all, we had votes and tried to get through them as quickly as possible.    Without objection, the Chair is authorized to declare a recess of the Committee at any time. We welcome everyone here to today's hearing on the Chevron Doctrine: Constitutional and Statutory Questions of Judicial Deference to Agencies. And I now recognize myself for an opening statement.    Today's hearing on the 30-plus-year-old Chevron doctrine presents interesting questions on the current state of the separation of powers, and the role of today's administrative state. These questions directly address the way our tripartite system of government works. For one, has judicial review of agency action evolved in a manner that respects the Constitution and the roles intended for the legislative, executive, and judicial branches? If there are issues, what can and should Congress do to address them?    In Chevron, the Supreme Court established a framework for how courts should review an agency's interpretation of a statute it administers. As a threshold matter, the court must determine whether the statute at hand clearly speaks to the question addressed by the agency action. If it does, then the court must conclude that the agency acted as Congress willed it. But if the statute is silent, or ambiguous, and congressional intent is not clear, then the court must consider whether or not the agency's interpretation is based on a permissible instruction of the statute. If it is, then the court defers to the agency's interpretation.    Although the Chevron doctrine is not as glamorous or headline worthy as some other issues we face in Congress, its indirect effect on the everyday lives of Americans cannot be understated. Its implications for the balance between the three branches of our government can be quite severe. In fact, many of the most significant decisions of the Supreme Court, in recent memory, centered on questions of administrative law. The focus is often on how agency officials interpreted a statute, rather than the substance of a statute itself as enacted by elected Members of Congress.    In this environment, Chevron and the cases that followed have caused confusion, instead of stability in the rulemaking process. In Marbury v. Madison, among the earliest precedents set by the Court, Chief Justice Marshall declared that, ``It is the province and duty of the judicial department to say what the law is.'' By mandating deference to agency interpretation of statutes, however, the judiciary has arguably stripped its own ability and charge to do just that. For those of us up here on the dais, Chevron raises additional concerns.    Throughout my time in Congress, and as a Member of the Judiciary Committee, I have decried the breadth and decree to which Congress has ceded its power to the executive branch and its agencies. Over 30 years of Chevron deference, we have seen the gradual creep of executive agencies from administrators of the legislative process to becoming legislators themselves.    As Justice Thomas noted in his concurrence to the Court's Michigan v. EPA decision from last summer: ``Statutory ambiguity thus becomes an implicit delegation of rulemaking authority, and that authority is used not to find the best meaning of the text, but to formulate legally binding rules to fill in gaps based on policy judgments made by the agency rather than Congress.''    In short, rather than executing the will of Congress, as set forth clearly through statute, agencies now have the freedom to define the law as they see fit. Some may argue that even the use of Chevron could be avoided by clearer legislation. This is true, and should be a goal for all in Congress. But, as long as Chevron stands, it still will not eliminate the opportunity and incentives for unelected bureaucrats, removed from the effects of their actions to set policy for our entire Nation. And we have seen it with just a small sample of overreaching EPA regulations like the Clean Power Plan, Waters of the U.S., and the Utility MACT rule found invalid in Michigan v. EPA.    A possibility of Chevron deference encourages a search, by those inside and outside of government, for ambiguity in a statute that allows them to engage in creative rulemakings to accomplish whatever goals an agency or organization may have. Today, we get to examine all of these results. We are fortunate to have an excellent panel of witnesses before us to present a variety of views. I look forward to hearing from each of you.    The Chair now recognizes the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, my friend, Mr. Johnson from Georgia, for his opening statements.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and welcome everyone to this very riveting issue. Judicial review of final agency action is a hallmark of administrative law and is critical to ensuring that agency action does not harm or adversely affect the public.    As the Supreme Court clarified recently, this significant policy concern has long supported a general rule favoring judicial review of agency action for arbitrariness and abuse of discretion subject only to rare exceptions. But as the Supreme Court held in Chevron v. Natural Resources Defense Council, reviewing courts may only invalidate an agency action when it violates a constitutional provision, or when the agency's rule exceeds its statutory authority to issue the rule as clearly expressed by Congress.    For the past 30 years, this seminal decision has required deference to the substantive expertise and political accountability of Federal agencies. Professor Ron Levin, chair of the Judicial Review Committee for the Administrative Conference Of the United States, explains that this doctrine is born from principles of separation of powers, noting that it ``recognizes that Congress often decides to entrust policymaking authority in certain areas when it does so, and the agency acts within the scope of that delegation as the court understands it, a court is obliged to honor the legislature's expectations by upholding a rational exercise of that authority, even where the agency reaches a conclusion that the reviewing court would not have reached.''    Although Chevron has taken on talismanic qualities in recent years, courts retain an important role in determining whether an agency action is permissible or arbitrary and capricious under the Administrative Procedure Act.    In 2011, the court indicated that at the very least, there is substantial overlap between the second step of Chevron and ``hard look reviewing,'' under the APA. And while there is no shortage of debate on the principles of judicial deference as the American Bar Association administrative law section noted in 2012, Judicial Review largely remains stable today concluding that, ``Debate on these principles continues, but the prevailing system works reasonably well, and no need for legislative intervention to revise these principles is apparent.''    I similarly oppose any attempt to abolish judicial deference through legislation. While I consider myself an ardent protector of the courts, it is a well-established doctrine that the province of the courts is deciding matters of the law, not substantive matters specifically delegated to agencies by Congress.    Since the 112th Congress, many of the majority's deregulatory bills we have considered will enlist generalist courts to supplant the expertise and political accountability of agencies in the rulemaking process. Compare this approach with other deregulatory bills passed by Congress which would greatly diminish judicial review over deregulatory actions. For example, the House adopted an amendment to H.R. 8, the ``North American Energy Security and Infrastructure Act of 2015,'' which reduced the statute of limitations for judicial review to just 90 days for certain energy claims. Immunizing certain energy projects from public accountability. In other words, the majority wants it both ways.    When it benefits corporate interest, the regulatory legislation dramatically increases the judicial review of new regulations, threatening to impose years of delay and untold cost on taxpayers. When it benefits the public or our environment, deregulatory legislation closes the courthouse doors through sweeping restrictions on the court's inability to provide relief. So we have one set of rules for consumers, and one set of rules for corporations.    These proposals, which are transparently the design of the donor class to minimize their exposure to legal accountability, are just another example of how some not only want to allow the fox to guard the chicken coop, they want the fox to install the chicken wire as well.    In closing, I look forward to testimony from our esteemed panel. Pardon my attempt at humor. I thank the witnesses for their testimony, and I yield back.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. My colleagues, today's hearing focuses on whether the Supreme Court's articulation of judicial deference in Chevron is a concept that should be retained in Federal administrative law. I believe the Chevron doctrine should be retained for several reasons: First, enhanced judicial review would make rulemaking even more costly and time-consuming for agencies. The Federal rulemaking process is already deeply ossified, as they say.    As the Nation's leading administrative law scholars have long observed, agency rulemaking is hampered by burdens imposed by both the courts and Congress. Indeed, Professor Richard Pierce, one of our witnesses, noted that more than 20 years ago, that the judicial branch is responsible for most of the ossification for the rulemaking process. Heightened judicial review would only worsen this problem because it would force agencies to formulate even more detail, factual records and explanations.    Enhanced judicial review could also have the perverse effect of undermining agency accountability and transparency. It could encourage agencies to conduct rulemaking out of the public view, to issue guidance documents in lieu of rulemaking, or to cause them to avoid rulemaking altogether.    I'm also concerned that the enhanced judicial review will undermine public participation in the rulemaking process. As the nonpartisan congressional research service has observed, public participation and agency decisionmaking is highly sensitive to cost and delay. And applying greater judicial scrutiny of agency rulemaking will favor those who can afford these greater costs.    Large corporate interests, which are accountable only to shareholders and devoted to maximizing profits, already have the edge with their vast resources to bury an agency in paperwork demands and litigation with a goal of weakening regulatory standards. Rather than providing even more opportunities for the voices of corporate interests to prevail, we should be considering ways to ensure the voices of the public are strengthened in the rulemaking process.    And finally, enhanced judicial review would encourage judicial activism. A less deferential judicial review standard would allow judges, in my view, to effectively make public policy from the bench while lacking the specialized expertise that agencies possess.    The Supreme Court has had numerous opportunities to expand judicial review of rulemaking, but it has consistently rejected this approach. This reflects its long-held belief that generalist courts lack the subject matter expertise of agencies, are politically unaccountable, and should not engage in making substantive determinations from the bench. Enhanced judicial review, on the other hand, would allow general courts to impose their rules, to impose their personal policy preferences.    It's ironic that the majority, which has long decried judicial activism, now seeks to give the judiciary a greater role in agency rulemaking. And what would be the impact on slowing down the rulemaking process? It means that rules intended to protect the health and safety of American citizens would take longer to promulgate and become effective. This means a delay for regulations that protect the quality of the air we breathe, and the safety of the water we drink, and the food we consume. And, so, I welcome the witnesses. I look forward to their testimony and return any time that I may not have used.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Without objection, other Members' opening statements will be made part of the record. I will begin now by swearing in our witnesses before I introduce you. So you would please stand and raise your right hand.    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God? You may be seated.    Let the record reflect that all the witnesses have responded in the affirmative.    I'm going to go through each one of your bios and then we'll come back and start with questions. Jonathan Turley is the Shapiro Professor of Public Interest Law at the George Washington University Law School. He has served as counsel in some of the most notable case of the last two decades. He has served as a consultant on Homeland Security and constitutional issues, and is a frequent expert witness for Congress on constitutional and statutory issues.    As a nationally recognized legal scholar, Professor Turley has written extensively in a range of areas. His articles have appeared in a variety of leading law journals and national newspapers. And he also contributes regularly to nationally syndicated news outlets. He is ranked 38 in the top 100 most public intellectuals, and was found to be the second most cited law professor in the country. Professor Turley earned his bachelor's degree from the University of Chicago, and his law degree from Northwestern University. Welcome, Professor.</t>
   </si>
   <si>
-    <t>Turley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turley. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. John Duffy is the Samuel H. McCoy Professor of Law at the University of Virginia Law School. Prior to joining UVA's law school, Professor Duffy taught at the George Washington, Benjamin N. Cardozo and William &amp; Mary Schools of Law as well as the University of Chicago. Professor Duffy also served as an attorney adviser in the Department of Justice's office of legal counsel and practiced law with the firm of Covington &amp; Burling. Professor Duffy is widely published and the coauthor of the casebook on patent law. Professor Duffy earned his bachelor's degree in physics from Harvard University, and has a law degree from University of Chicago, where he served as article's editor of the law review.    Professor Duffy clerked for Judge Steven Williams on the U.S. Court of Appeals for the D.C. Circuit, and for the late U.S. Supreme Court justice, Antonin Scalia.    Mr. Shepherd is a professor at the Emory University School of Law. Prior to that, he served as a visiting professor of law at the University of Dresden in Germany and a lecturer for Kaplan Bar Review. Mr. Shepherd practiced commercial litigation and bankruptcy law at the firm of Howard Rice in San Francisco, California. Professor Shepherd's articles, working papers, and books have been featured in various national publications and leading law journals. He has appeared as an expert witness before various panels as well as the Senate Committee on the Judiciary. Professor Shepherd graduated Summa Cum Laude from Yale with a degree in economics. He holds a law degree from the Harvard Law School, and a Ph.D. in economics from Stanford University. Welcome, sir.    Richard Pierce is the Lyle T. Alverson Professor of Law at George Washington University Law School. He has taught and researched in the fields of administrative law and regulatory practice for 38 years. Professor Pierce has taught at many law schools, including Columbia, SMU, the University of Kansas, the University of Virginia and the Pittsburgh School of Law. Professor Pierce has published widely on administrative law and regulatory policy. His books and articles have been cited in hundreds of agency and court opinions, including over a dozen opinions of the United States Supreme Court. He is a member of the administrative conference of the United States.    Professor Pierce served our country in the U.S. Coast Guard in various capacities. He earned his bachelor's degree in economics from Lehigh University, he holds a law degree from the University of Virginia School of Law where he graduated Order of the Coif and served as managing editor of law review. Professor, welcome.    Emily Hammond is the associate dean for Public Engagement and Professor of Law at the George Washington University law school. Professor Hammond previously taught at several universities, including Wake Forest, the University of Oklahoma College of Law, the University of Texas, Florida State University and the University of Georgia. Professor Hammond practiced law with Bondurant----</t>
   </si>
   <si>
-    <t>Hammond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hammond. Bondurant, yes.    Mr. Marino [continuing].--Mixson &amp; Elmore in Atlanta, Georgia. As a former environmental engineer, her expertise included electricity markets, regulatory jurisdictions and the various responses of legal institutions to scientific uncertainty. Professor Hammond's articles have appeared in numerous top ranked journals and she is the coauthor of one of the Nation's leading energy law texts. She is an elected member of the American Law Institute, a chair elect of the Association of American Law Schools Administrative law section, and a member scholar of the Center for Progressive Reform. She has served as a hearing examiner for state administrative proceedings and has provided service to the International Atomic Energy Agency. Professor Hammond earned her bachelor's degree in economics from Virginia Tech and a JD from the University of Georgia. Welcome, Professor.    Jack Beermann is the Harry Elwood Warren Scholar at the Boston University School of Law. He previously taught at various universities, including Harvard, DePaul, the Interdisciplinary Center in Herzliya, Israel, and the Chinese University of Political Science and Law.    Professor Beermann is published widely in top-ranked journals. He has authored and coauthored four books on administrative law, including a widely-used case book and the Emanuel Law Outline on the subject. Professor Beermann earned his bachelor's degree in political science and philosophy from the University of Wisconsin at Madison. He holds a law degree from the University of Chicago Law School, where he was elected Order of the Coif and served as an editor of the Law Review. Professor, welcome.    We're going to begin with opening statement, Professor Turley, before we do, there are lights in front of you, and I'm sure that several of you know what those lights are for. I'm colorblind, so I don't know what colors they are. So I'd ask you to keep your statements 5 minutes or less. And if you start to go over 5 minutes, I will diplomatically raise this little thing and tap here to get your attention. So I thank you, and I'd like to start with Professor Turley.</t>
   </si>
   <si>
@@ -106,18 +91,12 @@
     <t xml:space="preserve">    Mr. Marino. Thank you. Professor Duffy.  TESTIMONY OF JOHN F. DUFFY, SAMUEL H. McCOY II PROFESSOR OF </t>
   </si>
   <si>
-    <t>Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duffy. Thank you, Chairman Marino, Ranking Member Johnson, and distinguished Members of the Subcommittee. Thank you for inviting me to testify before you today. At the outset, I'd like to compliment the Subcommittee for devoting time and attention to the Chevron doctrine. This single doctrine has enormous practical and theoretical importance in the courts. And yet, it remains deeply controversial and confusing.    I believe that the Congress could write and enact clarifying legislation to supplant Chevron with more theoretically sound, and more easily understood principles.    I want to begin with two significant missteps, made in the Chevron opinion itself. First, and most importantly, the Supreme Court decided for itself, based on its own assessments of good policy and institutional competence where the Court should defer to agency statutory interpretations. The Court assumed, at least implicitly that Congress did not have an opinion on the matter. That implicit assumption was wrong. If the Court considered statutory law, it would have found that the first sentence of 706 of the APA requires the reviewing court to decide all relevant questions of law. And it would have found that the text structure, legislative history and a consistent line of judicial precedence all supported reading that sentence as requiring de novo review of agency interpretations.    Second, the Chevron court muddled the distinction between giving some weight to an agency's view as a part of the process of interpreting the statute, and recognizing the scope of an agency's delegated rulemaking or lawmaking powers.    Traditionally, courts engaged in statutory interpretations would not afford an agency's view significant weight if the agency had flip-flopped on its interpretation. The intuition here is easy to understand, where an agency has held inconsistent views, the varying agency positions are simply unhelpful in determining a statute's meanings.    By contrast, where an agency is wielding a delegated lawmaking power, courts fully expect administrative change. Indeed, the ability of an agency to change is part and parcel of a rulemaking power, which, as defined by the APA, encompasses not just the power to formulate rules, but also the power to amend and to repeal prior rules.    Chevron blended these two concepts together. It treated the issue in the case as involving deference, but borrowed from the delegation theories the crucial point that agencies can change their positions with no penalty whatsoever. As shown in my written testimony, Chevron itself is an excellent demonstration of how agencies exercise their delegated rulemaking powers, and the government itself presented the case to the Supreme Court on a delegation theory. The courts articulation of the new theory of statutory interpretation was as unnecessary as it was unwarranted.    Post Chevron cases, especially United States v. Mead and King v. Burwell, have begun to reinterpret Chevron as the doctrine about delegation rather than deference. Nevertheless, corrective legislation would still be desirable because the case law remains deeply confusing.    I believe legislation should be drafted around four principles: First and foremost, that Congress should reassert, in the clearest possible terms, that reviewing courts are to decide all questions of law and decide those questions de novo, without any deference to the administrative agency's positions.    Second, the legislation should recognize that where Congress has delegated lawmaking powers to an agency, reviewing courts should give proper scope to those powers, and allow the agency to write rules that are not arbitrary, capricious or contrary to law. This principle would count for the actual result in the Chevron case, but would make clear that the agency's power is grounded in the congressional delegation and not in deference.    Third, the Congress might also consider recognizing the traditional view that some administrative issues are mixed questions of law, in fact, and the courts might properly give some deference to the agency's application of law to the facts of a particular case.    Fourth and finally, Congress might also recognize the principle articulated by the Supreme Court in Skidmore v. Swift that in interpreting a statute de novo, courts may consider an agency's position as some evidence of a statute's meaning. Importantly, the agency would not have the power to control, but merely the power to persuade, a respect similar in kind to what might be afforded a prominent treatise, or nice law review article. Together, these principles reaffirm what Congress previously codified in section 706 of the APA, and restore the court's traditional role as articulated in Marbury v. Madison, to say with the law is.    Thank you for your time and attention to these issues, and thank you, again, Mr. Chairman, for the invitation to speak.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Dr. Shepherd, please accept my apology for not referring to you as Dr. Shepherd when I started reading your bio.</t>
   </si>
   <si>
-    <t>Shepherd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shepherd. Thank you, Chairman Marino, Ranking Member Johnson, Ranking Committee Member Conyers, and distinguished Members of the Subcommittee, for the opportunity to testify today. Let me summarize my main point, and then explain it in detail.    In the Chevron decision and cases following it, the courts have often given deference to legal interpretations. However, as Professor Duffy has noted, the Administrative Procedure Act said and still says the opposite. The APA explicitly says that there should be no deference on pure issues of law. And the APA's legislative history backs that up.    Let me now discuss this in a bit more detail. The APA was a compromise between liberal New Dealers, including President Roosevelt, and conservative opponents of the New Deal. It is the bill of rights for the administrative state. It has remained in force with little change for 70 years.    What does this founding document say about judicial review? The APA says that there should be no deference on issues of law. So here is the provision, the scope of review: The reviewing court shall decide all relevant questions of law and interpret constitutional and statutory provisions.    The provisions of the APA don't say anything about giving any deference on questions of law. If the drafters had wanted to, they knew how to create deference. Indeed, other nearby parts of the APA said that there should be deference on issues of fact. And the provision of the APA really means what is it says. To see this, let's look at the legislative history.    By the early 1940's, the Court had developed the following system: The Court said that there would be deference for agency decisions of fact, and for agency decisions of mixed fact and law. But there would be deference for decisions of law. At the time of the APA, everyone understood that the APA would codify and restate the Court's existing approach. This was shown by the understanding of three groups: first, participants in the legislative process; second, contemporary commentators; and finally, the courts.    First, the participants in the legislative process said this. As the bill that became the APA worked its way through Committees, all the reports said just that. For example, the Senate Judiciary Committee said, [``The provision on Judicial Review] seeks merely to restate the several categories of questions of law for judicial review.''    Likewise, in testimony in the House Judiciary Committee, the Attorney General said: ``This declares the existing law concerning the scope of judicial review.''    The Senate and House reports indicated the following: ``This subsection provides that questions of law are for courts rather than agencies to decide in the last analysis.''    The second group that said that the APA confirmed existing law was contemporary commentators. They said this in publications that appeared shortly after the APA became law in 1946.    For example, one commentator wrote in 1948 that ``[the provisions] `would appear to be quite simply a restatement of the present powers which reviewing courts possess, and frequently exercise, of reviewing relevant questions of constitutional and statutory law . . .' ''    The third group that understood the APA to merely restate existing law was the courts.</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, Professor Pierce.</t>
   </si>
   <si>
-    <t>Pierce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pierce. Thank you, Chairman Marino, Ranking Member Johnson and distinguished Members of the Subcommittee, for providing me the opportunity to testify today. I just want to go through a couple of basics to start with. First, courts always have and always will, confer to some degree of deference on agencies when they act because of comparative institutional expertise. The agencies know more than the courts about the subject matter that they are addressing, and that's why, presumably, Congress gave them the power, and not the courts, the power to implement the statutes at issue.    Second, courts always reject any agency action that is inconsistent with the statute, or if it is arbitrary and capricious. That's, again, something that's been around for a very long time and hasn't changed, didn't change with Chevron, hasn't changed today.    And then, courts uphold agency actions in about two-thirds of the cases that come before them, no matter what doctrine they apply. There has been study after study of all of these doctrines, and what they show is, like, a 2 percent difference in rate of upholding. The doctrines are not very important. Now, when Chevron was first decided in 1984, I set forth, in a number of articles and books, my reasons why I thought it was sensible and consistent with both the administrative procedures and the Constitution.    I also predicted that it would have a big effect. Well, I was totally wrong in my prediction, time has proven me wrong. Between 1984 and 2001, it had a fair amount of support in the circuit courts. Circuit courts rates of upholding agency action went up during that period of time. Since 2001, there's very little evidence that it's had any effect in the circuit courts. And there's never been any evidence that it has had any effect on the actual decisions of the Supreme Court, as opposed to the way that they phrased their decisions.    Just to give you an example of the difference between the two. Justice Scalia was the strongest proponent of Chevron. He expressed that view in opinion after opinion, and in a famous law review article he wrote in Duke Law Journal. He also is the Justice who votes least frequently to uphold agency actions. By contrast, Justice Breyer has always been a strong critic of Chevron, and he's the Justice who votes most frequently to uphold agency actions.    So, there really is no evidence today that Chevron is having any of the effects that some people attribute to it, and very little evidence that it ever had those effects in terms of actual Supreme Court opinions. The Supreme Court has the power to change its doctrine; it changes its doctrine all the time. It also has the discretion to apply its doctrines in different ways in different cases and to tailor the doctrines to the facts of the cases. And that's what they are doing. And the evidence is, as I indicated in an article that I included as an appendix to my testimony, that the degree of deference is going down. It has gone down over the last several years. So there's really no reason for concern at all. I can see absolutely no reason why you'd want to take legislative action in this area.    Thank you.</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t xml:space="preserve">    Mr. Marino. Thank you.    Professor Beermann.</t>
   </si>
   <si>
-    <t>Beermann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beermann. Thank you, Chairman Marino and Ranking Member Johnson, and the distinguished Members of the Committee. It's an honor to appear before you to testify about Chevron. I've been teaching and writing in the administrative law field for about 30 years now, and in particular, I have written a couple of articles that are highly critical of the Chevron doctrine for included in your materials for today's hearing.    Now, I had--part of my opening remarks were going to be to repeat some of the criticisms you've heard of Chevron, but I apologize, Mr. Johnson, that I couldn't come up with a metaphor about chickens or foxes, but I think it would be beating a dead horse somewhat. So I'm going to refrain from using part of my time for that.    And I want to say that one of the things that we've seen over the last couple of terms of the Supreme Court is some sense there that more of the Justices are starting to feel uncomfortable with the Chevron doctrine, but I really think it's overreading them to say that the Chevron doctrine is about to be thrown out. That's been going on since the beginning of the Chevron doctrine. There's always been this disagreement. More than once, Justice Scalia, may he rest in peace, complained that some decision had just eviscerated Chevron, but yet, Chevron limped along, sometimes resulting in extreme deference to agencies and always creating confusion and uncertainty.    And I think that one of the effects we need to think about is the fact that it encourages agencies to be more adventurous in their statutory interpretations so that regardless of what the result is going to be at the Court, the agencies can feel they can go farther away from Congress' expressed intent when they are interpreting a statute.    Now, substance aside, in my opinion, Chevron has failed as a matter of legal craft. In the sense that, remember, it's a decision procedure, a framework for decision. It's not a substantive rule itself. And, yet, there's so much uncertainty about how it applies that it's really failed as a decision procedure.    There's a big issue about how it relates to the arbitrary capricious and abuse of discretion otherwise not in accordance with law standard that governs under the Administrative Procedure Act. Are Chevron decisions about policy or about statutory interpretation? There's one line of cases that says that Pierce questions of statutory interpretation are for the courts, which throws into doubt what Chevron is actually about. And I don't think anyone favors giving the sort of extreme deference outlines in Chevron step 2 to agency policy decisions. Rather, what we want is for a careful consideration of whether the agency examined the relevant factors, employed the correct legal standard, applied its expertise when making its decisions.    And many of the decisions reviewed under Chevron turned out to be really policy decisions, not statutory interpretation decisions. So what I want to do now is look forward to the idea of a possible statutory reform, and I spelled this out in my complete testimony before you, a proposal that I think will reorient agent--judicial review of agency action toward the will of Congress.    And the text, as I spelled it out, is as follows: Unless expressly required otherwise by statute, the reviewing court shall decide all questions of law de novo with due regard for the views of the agency administering the statute and any other agency involved in the decision-making process. And the words ``due regard,'' they are not--obviously, they are not certain. There is some historical precedent for the use of those words in such a statute, and it would make clear to the reviewing courts that they have the primary responsibility for ensuring that agencies follow Congress' instruction, while acknowledging that there's room for deference when deference is warranted.    So courts, under this standard, would apply the traditional Skidmore of consistency, deliberation, thoroughness, and persuasiveness, but they wouldn't be locked into these standards, because there may be other factors that may seem relevant in a particular circumstance, and the courts may feel free to do that. Of course, this would not come anywhere close to eliminating all uncertainty in judicial review. It wouldn't become mechanical by any means, but it would eliminate the epic battles we see today about whether and how Chevron applies, and it would head off the sort of extreme deference to agencies that, in my opinion, often thwarts serious examination of legislative intent.    Now, one important point about this. Justice Scalia, in his defense of Chevron, was very concerned about flexibility. He viewed one of the virtues of Chevron that it preserved agency flexibility to change its views as conditions warranted.    Now, in his opinion, once Skidmore deference would apply, this sort of deference, that the agency would be locked in to whatever the Court approved. And I don't think that's actually necessary. I don't think this is insurmountable. I think courts could--in my opinion, they could, consistent with the rule of law, allow for continued agency flexibility whenever an agency interpretation had been accepted under the new due-regards standards, as long as it's clear that the decision was made with substantial deference to the agency.    Now, a bigger question has been raised by some of my copanelists is whether this would actually make a difference. As I point out in the articles included with this testimony, at least at the Supreme Court, the cases seem to be more decided along the ideological dividing lines that we are all familiar with at the Court rather than on differing views of deference.    Now, that may be true, but I think it would be less so if the governing standard of review nudged the courts more toward careful consideration of legislative intent. Chevron is a distraction from what should be the two key issues in judicial review: congressional intent and sensible policy. And some sort of reform, whether my proposal or something else, ought to reorient the law in that direction.    Thank you.</t>
   </si>
   <si>
@@ -229,9 +202,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Thank you, Mr. Chairman.    Professor Turley, good to see you again.</t>
   </si>
   <si>
@@ -262,9 +232,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you Mr. Chair, and thanks to all of you for being here today.    Professor Hammond, I wanted to ask if you are familiar with the U.S. Department of Education's gainful employment rule?</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    So I've only been in Congress for the last 15 months, but in that period of time, I've already been able to have hundreds of conversations with small business owners and farmers and community bankers, independent insurance agents across the rural Northeast Texas district that I represent that all those conversations end in frustration over the endless burden of regulatory agencies and rules. Sometimes it relates to ObamaCare; sometimes it relates to the EPA regulating puddles in people's backyards, or trying to tell my constituents what kind of light bulbs they have to buy, and this frustration is really heightened, because when I came into Congress, I came in as part of a historic majority here in the House, and as part of the Congress where we took over the Senate as well, and I think my constituents expected things to change, hoped that Republicans would put a stop to a run-away administrative state in this country. But admittedly, very little has changed. And we can talk about executive overreach, but I'm willing to admit and acknowledge that part of the problem here is legislative underreach, and with respect to the Chevron doctrine and other things.    So I'm certainly grateful that we're having this hearing today. We have an opportunity to talk about the possibility of solutions to this pervasive problem, and so I want to start with you, Professor Turley, because in your written testimony you said that--and I'll quote you here, ``Fear that the growth of Federal agencies is reaching a critical mass within our system, a point where rapid exponential and irreversible expansion will occur.''    So, in your opinion, first, let me ask you, what are the greatest drivers of this agency expansion? And where does Chevron fall on that list?</t>
   </si>
   <si>
@@ -338,9 +302,6 @@
   </si>
   <si>
     <t>412561</t>
-  </si>
-  <si>
-    <t>Hakeem S. Jeffries</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jeffries. I thank the Chair, and I thank the witnesses for what has been a very thoughtful discussion.    Professor Turley, is it my understanding that one of your concerns with the Chevron doctrine is that the Court seems to be coming to the conclusion that the ambiguity in the statute effectively means that Congress is delegating authority to the administrative agencies? Is that right?</t>
@@ -784,11 +745,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -808,13 +767,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -836,11 +793,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -862,11 +817,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -886,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -914,11 +865,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -938,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -966,11 +913,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -990,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1044,11 +985,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1068,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1096,11 +1033,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1120,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1148,11 +1081,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1172,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1200,11 +1129,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1224,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1252,11 +1177,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1278,11 +1201,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1302,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1330,11 +1249,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1382,11 +1297,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1406,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1434,11 +1345,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1458,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1486,11 +1393,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1510,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1538,11 +1441,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1562,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1590,11 +1489,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1640,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1666,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1692,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1718,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1744,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1770,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1796,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1822,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1848,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1874,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1900,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1952,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1980,11 +1849,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2030,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2082,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2108,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2134,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2186,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2212,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2240,11 +2089,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2264,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2342,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2368,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2420,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2472,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2524,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>82</v>
-      </c>
-      <c r="H69" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2576,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2604,11 +2425,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2628,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2654,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2680,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2706,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2732,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2758,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2784,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2812,11 +2617,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2836,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2888,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2940,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2966,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2992,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3018,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3070,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3096,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3122,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3148,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>108</v>
-      </c>
-      <c r="H93" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3174,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3202,11 +2977,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. I apologize. First of all, we had votes and tried to get through them as quickly as possible.    Without objection, the Chair is authorized to declare a recess of the Committee at any time. We welcome everyone here to today's hearing on the Chevron Doctrine: Constitutional and Statutory Questions of Judicial Deference to Agencies. And I now recognize myself for an opening statement.    Today's hearing on the 30-plus-year-old Chevron doctrine presents interesting questions on the current state of the separation of powers, and the role of today's administrative state. These questions directly address the way our tripartite system of government works. For one, has judicial review of agency action evolved in a manner that respects the Constitution and the roles intended for the legislative, executive, and judicial branches? If there are issues, what can and should Congress do to address them?    In Chevron, the Supreme Court established a framework for how courts should review an agency's interpretation of a statute it administers. As a threshold matter, the court must determine whether the statute at hand clearly speaks to the question addressed by the agency action. If it does, then the court must conclude that the agency acted as Congress willed it. But if the statute is silent, or ambiguous, and congressional intent is not clear, then the court must consider whether or not the agency's interpretation is based on a permissible instruction of the statute. If it is, then the court defers to the agency's interpretation.    Although the Chevron doctrine is not as glamorous or headline worthy as some other issues we face in Congress, its indirect effect on the everyday lives of Americans cannot be understated. Its implications for the balance between the three branches of our government can be quite severe. In fact, many of the most significant decisions of the Supreme Court, in recent memory, centered on questions of administrative law. The focus is often on how agency officials interpreted a statute, rather than the substance of a statute itself as enacted by elected Members of Congress.    In this environment, Chevron and the cases that followed have caused confusion, instead of stability in the rulemaking process. In Marbury v. Madison, among the earliest precedents set by the Court, Chief Justice Marshall declared that, ``It is the province and duty of the judicial department to say what the law is.'' By mandating deference to agency interpretation of statutes, however, the judiciary has arguably stripped its own ability and charge to do just that. For those of us up here on the dais, Chevron raises additional concerns.    Throughout my time in Congress, and as a Member of the Judiciary Committee, I have decried the breadth and decree to which Congress has ceded its power to the executive branch and its agencies. Over 30 years of Chevron deference, we have seen the gradual creep of executive agencies from administrators of the legislative process to becoming legislators themselves.    As Justice Thomas noted in his concurrence to the Court's Michigan v. EPA decision from last summer: ``Statutory ambiguity thus becomes an implicit delegation of rulemaking authority, and that authority is used not to find the best meaning of the text, but to formulate legally binding rules to fill in gaps based on policy judgments made by the agency rather than Congress.''    In short, rather than executing the will of Congress, as set forth clearly through statute, agencies now have the freedom to define the law as they see fit. Some may argue that even the use of Chevron could be avoided by clearer legislation. This is true, and should be a goal for all in Congress. But, as long as Chevron stands, it still will not eliminate the opportunity and incentives for unelected bureaucrats, removed from the effects of their actions to set policy for our entire Nation. And we have seen it with just a small sample of overreaching EPA regulations like the Clean Power Plan, Waters of the U.S., and the Utility MACT rule found invalid in Michigan v. EPA.    A possibility of Chevron deference encourages a search, by those inside and outside of government, for ambiguity in a statute that allows them to engage in creative rulemakings to accomplish whatever goals an agency or organization may have. Today, we get to examine all of these results. We are fortunate to have an excellent panel of witnesses before us to present a variety of views. I look forward to hearing from each of you.    The Chair now recognizes the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, my friend, Mr. Johnson from Georgia, for his opening statements.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and welcome everyone to this very riveting issue. Judicial review of final agency action is a hallmark of administrative law and is critical to ensuring that agency action does not harm or adversely affect the public.    As the Supreme Court clarified recently, this significant policy concern has long supported a general rule favoring judicial review of agency action for arbitrariness and abuse of discretion subject only to rare exceptions. But as the Supreme Court held in Chevron v. Natural Resources Defense Council, reviewing courts may only invalidate an agency action when it violates a constitutional provision, or when the agency's rule exceeds its statutory authority to issue the rule as clearly expressed by Congress.    For the past 30 years, this seminal decision has required deference to the substantive expertise and political accountability of Federal agencies. Professor Ron Levin, chair of the Judicial Review Committee for the Administrative Conference Of the United States, explains that this doctrine is born from principles of separation of powers, noting that it ``recognizes that Congress often decides to entrust policymaking authority in certain areas when it does so, and the agency acts within the scope of that delegation as the court understands it, a court is obliged to honor the legislature's expectations by upholding a rational exercise of that authority, even where the agency reaches a conclusion that the reviewing court would not have reached.''    Although Chevron has taken on talismanic qualities in recent years, courts retain an important role in determining whether an agency action is permissible or arbitrary and capricious under the Administrative Procedure Act.    In 2011, the court indicated that at the very least, there is substantial overlap between the second step of Chevron and ``hard look reviewing,'' under the APA. And while there is no shortage of debate on the principles of judicial deference as the American Bar Association administrative law section noted in 2012, Judicial Review largely remains stable today concluding that, ``Debate on these principles continues, but the prevailing system works reasonably well, and no need for legislative intervention to revise these principles is apparent.''    I similarly oppose any attempt to abolish judicial deference through legislation. While I consider myself an ardent protector of the courts, it is a well-established doctrine that the province of the courts is deciding matters of the law, not substantive matters specifically delegated to agencies by Congress.    Since the 112th Congress, many of the majority's deregulatory bills we have considered will enlist generalist courts to supplant the expertise and political accountability of agencies in the rulemaking process. Compare this approach with other deregulatory bills passed by Congress which would greatly diminish judicial review over deregulatory actions. For example, the House adopted an amendment to H.R. 8, the ``North American Energy Security and Infrastructure Act of 2015,'' which reduced the statute of limitations for judicial review to just 90 days for certain energy claims. Immunizing certain energy projects from public accountability. In other words, the majority wants it both ways.    When it benefits corporate interest, the regulatory legislation dramatically increases the judicial review of new regulations, threatening to impose years of delay and untold cost on taxpayers. When it benefits the public or our environment, deregulatory legislation closes the courthouse doors through sweeping restrictions on the court's inability to provide relief. So we have one set of rules for consumers, and one set of rules for corporations.    These proposals, which are transparently the design of the donor class to minimize their exposure to legal accountability, are just another example of how some not only want to allow the fox to guard the chicken coop, they want the fox to install the chicken wire as well.    In closing, I look forward to testimony from our esteemed panel. Pardon my attempt at humor. I thank the witnesses for their testimony, and I yield back.</t>
   </si>
   <si>
@@ -70,18 +85,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. My colleagues, today's hearing focuses on whether the Supreme Court's articulation of judicial deference in Chevron is a concept that should be retained in Federal administrative law. I believe the Chevron doctrine should be retained for several reasons: First, enhanced judicial review would make rulemaking even more costly and time-consuming for agencies. The Federal rulemaking process is already deeply ossified, as they say.    As the Nation's leading administrative law scholars have long observed, agency rulemaking is hampered by burdens imposed by both the courts and Congress. Indeed, Professor Richard Pierce, one of our witnesses, noted that more than 20 years ago, that the judicial branch is responsible for most of the ossification for the rulemaking process. Heightened judicial review would only worsen this problem because it would force agencies to formulate even more detail, factual records and explanations.    Enhanced judicial review could also have the perverse effect of undermining agency accountability and transparency. It could encourage agencies to conduct rulemaking out of the public view, to issue guidance documents in lieu of rulemaking, or to cause them to avoid rulemaking altogether.    I'm also concerned that the enhanced judicial review will undermine public participation in the rulemaking process. As the nonpartisan congressional research service has observed, public participation and agency decisionmaking is highly sensitive to cost and delay. And applying greater judicial scrutiny of agency rulemaking will favor those who can afford these greater costs.    Large corporate interests, which are accountable only to shareholders and devoted to maximizing profits, already have the edge with their vast resources to bury an agency in paperwork demands and litigation with a goal of weakening regulatory standards. Rather than providing even more opportunities for the voices of corporate interests to prevail, we should be considering ways to ensure the voices of the public are strengthened in the rulemaking process.    And finally, enhanced judicial review would encourage judicial activism. A less deferential judicial review standard would allow judges, in my view, to effectively make public policy from the bench while lacking the specialized expertise that agencies possess.    The Supreme Court has had numerous opportunities to expand judicial review of rulemaking, but it has consistently rejected this approach. This reflects its long-held belief that generalist courts lack the subject matter expertise of agencies, are politically unaccountable, and should not engage in making substantive determinations from the bench. Enhanced judicial review, on the other hand, would allow general courts to impose their rules, to impose their personal policy preferences.    It's ironic that the majority, which has long decried judicial activism, now seeks to give the judiciary a greater role in agency rulemaking. And what would be the impact on slowing down the rulemaking process? It means that rules intended to protect the health and safety of American citizens would take longer to promulgate and become effective. This means a delay for regulations that protect the quality of the air we breathe, and the safety of the water we drink, and the food we consume. And, so, I welcome the witnesses. I look forward to their testimony and return any time that I may not have used.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Without objection, other Members' opening statements will be made part of the record. I will begin now by swearing in our witnesses before I introduce you. So you would please stand and raise your right hand.    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God? You may be seated.    Let the record reflect that all the witnesses have responded in the affirmative.    I'm going to go through each one of your bios and then we'll come back and start with questions. Jonathan Turley is the Shapiro Professor of Public Interest Law at the George Washington University Law School. He has served as counsel in some of the most notable case of the last two decades. He has served as a consultant on Homeland Security and constitutional issues, and is a frequent expert witness for Congress on constitutional and statutory issues.    As a nationally recognized legal scholar, Professor Turley has written extensively in a range of areas. His articles have appeared in a variety of leading law journals and national newspapers. And he also contributes regularly to nationally syndicated news outlets. He is ranked 38 in the top 100 most public intellectuals, and was found to be the second most cited law professor in the country. Professor Turley earned his bachelor's degree from the University of Chicago, and his law degree from Northwestern University. Welcome, Professor.</t>
   </si>
   <si>
+    <t>Turley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turley. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. John Duffy is the Samuel H. McCoy Professor of Law at the University of Virginia Law School. Prior to joining UVA's law school, Professor Duffy taught at the George Washington, Benjamin N. Cardozo and William &amp; Mary Schools of Law as well as the University of Chicago. Professor Duffy also served as an attorney adviser in the Department of Justice's office of legal counsel and practiced law with the firm of Covington &amp; Burling. Professor Duffy is widely published and the coauthor of the casebook on patent law. Professor Duffy earned his bachelor's degree in physics from Harvard University, and has a law degree from University of Chicago, where he served as article's editor of the law review.    Professor Duffy clerked for Judge Steven Williams on the U.S. Court of Appeals for the D.C. Circuit, and for the late U.S. Supreme Court justice, Antonin Scalia.    Mr. Shepherd is a professor at the Emory University School of Law. Prior to that, he served as a visiting professor of law at the University of Dresden in Germany and a lecturer for Kaplan Bar Review. Mr. Shepherd practiced commercial litigation and bankruptcy law at the firm of Howard Rice in San Francisco, California. Professor Shepherd's articles, working papers, and books have been featured in various national publications and leading law journals. He has appeared as an expert witness before various panels as well as the Senate Committee on the Judiciary. Professor Shepherd graduated Summa Cum Laude from Yale with a degree in economics. He holds a law degree from the Harvard Law School, and a Ph.D. in economics from Stanford University. Welcome, sir.    Richard Pierce is the Lyle T. Alverson Professor of Law at George Washington University Law School. He has taught and researched in the fields of administrative law and regulatory practice for 38 years. Professor Pierce has taught at many law schools, including Columbia, SMU, the University of Kansas, the University of Virginia and the Pittsburgh School of Law. Professor Pierce has published widely on administrative law and regulatory policy. His books and articles have been cited in hundreds of agency and court opinions, including over a dozen opinions of the United States Supreme Court. He is a member of the administrative conference of the United States.    Professor Pierce served our country in the U.S. Coast Guard in various capacities. He earned his bachelor's degree in economics from Lehigh University, he holds a law degree from the University of Virginia School of Law where he graduated Order of the Coif and served as managing editor of law review. Professor, welcome.    Emily Hammond is the associate dean for Public Engagement and Professor of Law at the George Washington University law school. Professor Hammond previously taught at several universities, including Wake Forest, the University of Oklahoma College of Law, the University of Texas, Florida State University and the University of Georgia. Professor Hammond practiced law with Bondurant----</t>
   </si>
   <si>
+    <t>Hammond</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hammond. Bondurant, yes.    Mr. Marino [continuing].--Mixson &amp; Elmore in Atlanta, Georgia. As a former environmental engineer, her expertise included electricity markets, regulatory jurisdictions and the various responses of legal institutions to scientific uncertainty. Professor Hammond's articles have appeared in numerous top ranked journals and she is the coauthor of one of the Nation's leading energy law texts. She is an elected member of the American Law Institute, a chair elect of the Association of American Law Schools Administrative law section, and a member scholar of the Center for Progressive Reform. She has served as a hearing examiner for state administrative proceedings and has provided service to the International Atomic Energy Agency. Professor Hammond earned her bachelor's degree in economics from Virginia Tech and a JD from the University of Georgia. Welcome, Professor.    Jack Beermann is the Harry Elwood Warren Scholar at the Boston University School of Law. He previously taught at various universities, including Harvard, DePaul, the Interdisciplinary Center in Herzliya, Israel, and the Chinese University of Political Science and Law.    Professor Beermann is published widely in top-ranked journals. He has authored and coauthored four books on administrative law, including a widely-used case book and the Emanuel Law Outline on the subject. Professor Beermann earned his bachelor's degree in political science and philosophy from the University of Wisconsin at Madison. He holds a law degree from the University of Chicago Law School, where he was elected Order of the Coif and served as an editor of the Law Review. Professor, welcome.    We're going to begin with opening statement, Professor Turley, before we do, there are lights in front of you, and I'm sure that several of you know what those lights are for. I'm colorblind, so I don't know what colors they are. So I'd ask you to keep your statements 5 minutes or less. And if you start to go over 5 minutes, I will diplomatically raise this little thing and tap here to get your attention. So I thank you, and I'd like to start with Professor Turley.</t>
   </si>
   <si>
@@ -91,12 +115,18 @@
     <t xml:space="preserve">    Mr. Marino. Thank you. Professor Duffy.  TESTIMONY OF JOHN F. DUFFY, SAMUEL H. McCOY II PROFESSOR OF </t>
   </si>
   <si>
+    <t>Duffy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duffy. Thank you, Chairman Marino, Ranking Member Johnson, and distinguished Members of the Subcommittee. Thank you for inviting me to testify before you today. At the outset, I'd like to compliment the Subcommittee for devoting time and attention to the Chevron doctrine. This single doctrine has enormous practical and theoretical importance in the courts. And yet, it remains deeply controversial and confusing.    I believe that the Congress could write and enact clarifying legislation to supplant Chevron with more theoretically sound, and more easily understood principles.    I want to begin with two significant missteps, made in the Chevron opinion itself. First, and most importantly, the Supreme Court decided for itself, based on its own assessments of good policy and institutional competence where the Court should defer to agency statutory interpretations. The Court assumed, at least implicitly that Congress did not have an opinion on the matter. That implicit assumption was wrong. If the Court considered statutory law, it would have found that the first sentence of 706 of the APA requires the reviewing court to decide all relevant questions of law. And it would have found that the text structure, legislative history and a consistent line of judicial precedence all supported reading that sentence as requiring de novo review of agency interpretations.    Second, the Chevron court muddled the distinction between giving some weight to an agency's view as a part of the process of interpreting the statute, and recognizing the scope of an agency's delegated rulemaking or lawmaking powers.    Traditionally, courts engaged in statutory interpretations would not afford an agency's view significant weight if the agency had flip-flopped on its interpretation. The intuition here is easy to understand, where an agency has held inconsistent views, the varying agency positions are simply unhelpful in determining a statute's meanings.    By contrast, where an agency is wielding a delegated lawmaking power, courts fully expect administrative change. Indeed, the ability of an agency to change is part and parcel of a rulemaking power, which, as defined by the APA, encompasses not just the power to formulate rules, but also the power to amend and to repeal prior rules.    Chevron blended these two concepts together. It treated the issue in the case as involving deference, but borrowed from the delegation theories the crucial point that agencies can change their positions with no penalty whatsoever. As shown in my written testimony, Chevron itself is an excellent demonstration of how agencies exercise their delegated rulemaking powers, and the government itself presented the case to the Supreme Court on a delegation theory. The courts articulation of the new theory of statutory interpretation was as unnecessary as it was unwarranted.    Post Chevron cases, especially United States v. Mead and King v. Burwell, have begun to reinterpret Chevron as the doctrine about delegation rather than deference. Nevertheless, corrective legislation would still be desirable because the case law remains deeply confusing.    I believe legislation should be drafted around four principles: First and foremost, that Congress should reassert, in the clearest possible terms, that reviewing courts are to decide all questions of law and decide those questions de novo, without any deference to the administrative agency's positions.    Second, the legislation should recognize that where Congress has delegated lawmaking powers to an agency, reviewing courts should give proper scope to those powers, and allow the agency to write rules that are not arbitrary, capricious or contrary to law. This principle would count for the actual result in the Chevron case, but would make clear that the agency's power is grounded in the congressional delegation and not in deference.    Third, the Congress might also consider recognizing the traditional view that some administrative issues are mixed questions of law, in fact, and the courts might properly give some deference to the agency's application of law to the facts of a particular case.    Fourth and finally, Congress might also recognize the principle articulated by the Supreme Court in Skidmore v. Swift that in interpreting a statute de novo, courts may consider an agency's position as some evidence of a statute's meaning. Importantly, the agency would not have the power to control, but merely the power to persuade, a respect similar in kind to what might be afforded a prominent treatise, or nice law review article. Together, these principles reaffirm what Congress previously codified in section 706 of the APA, and restore the court's traditional role as articulated in Marbury v. Madison, to say with the law is.    Thank you for your time and attention to these issues, and thank you, again, Mr. Chairman, for the invitation to speak.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Dr. Shepherd, please accept my apology for not referring to you as Dr. Shepherd when I started reading your bio.</t>
   </si>
   <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shepherd. Thank you, Chairman Marino, Ranking Member Johnson, Ranking Committee Member Conyers, and distinguished Members of the Subcommittee, for the opportunity to testify today. Let me summarize my main point, and then explain it in detail.    In the Chevron decision and cases following it, the courts have often given deference to legal interpretations. However, as Professor Duffy has noted, the Administrative Procedure Act said and still says the opposite. The APA explicitly says that there should be no deference on pure issues of law. And the APA's legislative history backs that up.    Let me now discuss this in a bit more detail. The APA was a compromise between liberal New Dealers, including President Roosevelt, and conservative opponents of the New Deal. It is the bill of rights for the administrative state. It has remained in force with little change for 70 years.    What does this founding document say about judicial review? The APA says that there should be no deference on issues of law. So here is the provision, the scope of review: The reviewing court shall decide all relevant questions of law and interpret constitutional and statutory provisions.    The provisions of the APA don't say anything about giving any deference on questions of law. If the drafters had wanted to, they knew how to create deference. Indeed, other nearby parts of the APA said that there should be deference on issues of fact. And the provision of the APA really means what is it says. To see this, let's look at the legislative history.    By the early 1940's, the Court had developed the following system: The Court said that there would be deference for agency decisions of fact, and for agency decisions of mixed fact and law. But there would be deference for decisions of law. At the time of the APA, everyone understood that the APA would codify and restate the Court's existing approach. This was shown by the understanding of three groups: first, participants in the legislative process; second, contemporary commentators; and finally, the courts.    First, the participants in the legislative process said this. As the bill that became the APA worked its way through Committees, all the reports said just that. For example, the Senate Judiciary Committee said, [``The provision on Judicial Review] seeks merely to restate the several categories of questions of law for judicial review.''    Likewise, in testimony in the House Judiciary Committee, the Attorney General said: ``This declares the existing law concerning the scope of judicial review.''    The Senate and House reports indicated the following: ``This subsection provides that questions of law are for courts rather than agencies to decide in the last analysis.''    The second group that said that the APA confirmed existing law was contemporary commentators. They said this in publications that appeared shortly after the APA became law in 1946.    For example, one commentator wrote in 1948 that ``[the provisions] `would appear to be quite simply a restatement of the present powers which reviewing courts possess, and frequently exercise, of reviewing relevant questions of constitutional and statutory law . . .' ''    The third group that understood the APA to merely restate existing law was the courts.</t>
   </si>
   <si>
@@ -118,6 +148,9 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, Professor Pierce.</t>
   </si>
   <si>
+    <t>Pierce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pierce. Thank you, Chairman Marino, Ranking Member Johnson and distinguished Members of the Subcommittee, for providing me the opportunity to testify today. I just want to go through a couple of basics to start with. First, courts always have and always will, confer to some degree of deference on agencies when they act because of comparative institutional expertise. The agencies know more than the courts about the subject matter that they are addressing, and that's why, presumably, Congress gave them the power, and not the courts, the power to implement the statutes at issue.    Second, courts always reject any agency action that is inconsistent with the statute, or if it is arbitrary and capricious. That's, again, something that's been around for a very long time and hasn't changed, didn't change with Chevron, hasn't changed today.    And then, courts uphold agency actions in about two-thirds of the cases that come before them, no matter what doctrine they apply. There has been study after study of all of these doctrines, and what they show is, like, a 2 percent difference in rate of upholding. The doctrines are not very important. Now, when Chevron was first decided in 1984, I set forth, in a number of articles and books, my reasons why I thought it was sensible and consistent with both the administrative procedures and the Constitution.    I also predicted that it would have a big effect. Well, I was totally wrong in my prediction, time has proven me wrong. Between 1984 and 2001, it had a fair amount of support in the circuit courts. Circuit courts rates of upholding agency action went up during that period of time. Since 2001, there's very little evidence that it's had any effect in the circuit courts. And there's never been any evidence that it has had any effect on the actual decisions of the Supreme Court, as opposed to the way that they phrased their decisions.    Just to give you an example of the difference between the two. Justice Scalia was the strongest proponent of Chevron. He expressed that view in opinion after opinion, and in a famous law review article he wrote in Duke Law Journal. He also is the Justice who votes least frequently to uphold agency actions. By contrast, Justice Breyer has always been a strong critic of Chevron, and he's the Justice who votes most frequently to uphold agency actions.    So, there really is no evidence today that Chevron is having any of the effects that some people attribute to it, and very little evidence that it ever had those effects in terms of actual Supreme Court opinions. The Supreme Court has the power to change its doctrine; it changes its doctrine all the time. It also has the discretion to apply its doctrines in different ways in different cases and to tailor the doctrines to the facts of the cases. And that's what they are doing. And the evidence is, as I indicated in an article that I included as an appendix to my testimony, that the degree of deference is going down. It has gone down over the last several years. So there's really no reason for concern at all. I can see absolutely no reason why you'd want to take legislative action in this area.    Thank you.</t>
   </si>
   <si>
@@ -130,6 +163,9 @@
     <t xml:space="preserve">    Mr. Marino. Thank you.    Professor Beermann.</t>
   </si>
   <si>
+    <t>Beermann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beermann. Thank you, Chairman Marino and Ranking Member Johnson, and the distinguished Members of the Committee. It's an honor to appear before you to testify about Chevron. I've been teaching and writing in the administrative law field for about 30 years now, and in particular, I have written a couple of articles that are highly critical of the Chevron doctrine for included in your materials for today's hearing.    Now, I had--part of my opening remarks were going to be to repeat some of the criticisms you've heard of Chevron, but I apologize, Mr. Johnson, that I couldn't come up with a metaphor about chickens or foxes, but I think it would be beating a dead horse somewhat. So I'm going to refrain from using part of my time for that.    And I want to say that one of the things that we've seen over the last couple of terms of the Supreme Court is some sense there that more of the Justices are starting to feel uncomfortable with the Chevron doctrine, but I really think it's overreading them to say that the Chevron doctrine is about to be thrown out. That's been going on since the beginning of the Chevron doctrine. There's always been this disagreement. More than once, Justice Scalia, may he rest in peace, complained that some decision had just eviscerated Chevron, but yet, Chevron limped along, sometimes resulting in extreme deference to agencies and always creating confusion and uncertainty.    And I think that one of the effects we need to think about is the fact that it encourages agencies to be more adventurous in their statutory interpretations so that regardless of what the result is going to be at the Court, the agencies can feel they can go farther away from Congress' expressed intent when they are interpreting a statute.    Now, substance aside, in my opinion, Chevron has failed as a matter of legal craft. In the sense that, remember, it's a decision procedure, a framework for decision. It's not a substantive rule itself. And, yet, there's so much uncertainty about how it applies that it's really failed as a decision procedure.    There's a big issue about how it relates to the arbitrary capricious and abuse of discretion otherwise not in accordance with law standard that governs under the Administrative Procedure Act. Are Chevron decisions about policy or about statutory interpretation? There's one line of cases that says that Pierce questions of statutory interpretation are for the courts, which throws into doubt what Chevron is actually about. And I don't think anyone favors giving the sort of extreme deference outlines in Chevron step 2 to agency policy decisions. Rather, what we want is for a careful consideration of whether the agency examined the relevant factors, employed the correct legal standard, applied its expertise when making its decisions.    And many of the decisions reviewed under Chevron turned out to be really policy decisions, not statutory interpretation decisions. So what I want to do now is look forward to the idea of a possible statutory reform, and I spelled this out in my complete testimony before you, a proposal that I think will reorient agent--judicial review of agency action toward the will of Congress.    And the text, as I spelled it out, is as follows: Unless expressly required otherwise by statute, the reviewing court shall decide all questions of law de novo with due regard for the views of the agency administering the statute and any other agency involved in the decision-making process. And the words ``due regard,'' they are not--obviously, they are not certain. There is some historical precedent for the use of those words in such a statute, and it would make clear to the reviewing courts that they have the primary responsibility for ensuring that agencies follow Congress' instruction, while acknowledging that there's room for deference when deference is warranted.    So courts, under this standard, would apply the traditional Skidmore of consistency, deliberation, thoroughness, and persuasiveness, but they wouldn't be locked into these standards, because there may be other factors that may seem relevant in a particular circumstance, and the courts may feel free to do that. Of course, this would not come anywhere close to eliminating all uncertainty in judicial review. It wouldn't become mechanical by any means, but it would eliminate the epic battles we see today about whether and how Chevron applies, and it would head off the sort of extreme deference to agencies that, in my opinion, often thwarts serious examination of legislative intent.    Now, one important point about this. Justice Scalia, in his defense of Chevron, was very concerned about flexibility. He viewed one of the virtues of Chevron that it preserved agency flexibility to change its views as conditions warranted.    Now, in his opinion, once Skidmore deference would apply, this sort of deference, that the agency would be locked in to whatever the Court approved. And I don't think that's actually necessary. I don't think this is insurmountable. I think courts could--in my opinion, they could, consistent with the rule of law, allow for continued agency flexibility whenever an agency interpretation had been accepted under the new due-regards standards, as long as it's clear that the decision was made with substantial deference to the agency.    Now, a bigger question has been raised by some of my copanelists is whether this would actually make a difference. As I point out in the articles included with this testimony, at least at the Supreme Court, the cases seem to be more decided along the ideological dividing lines that we are all familiar with at the Court rather than on differing views of deference.    Now, that may be true, but I think it would be less so if the governing standard of review nudged the courts more toward careful consideration of legislative intent. Chevron is a distraction from what should be the two key issues in judicial review: congressional intent and sensible policy. And some sort of reform, whether my proposal or something else, ought to reorient the law in that direction.    Thank you.</t>
   </si>
   <si>
@@ -202,6 +238,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Thank you, Mr. Chairman.    Professor Turley, good to see you again.</t>
   </si>
   <si>
@@ -232,6 +274,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you Mr. Chair, and thanks to all of you for being here today.    Professor Hammond, I wanted to ask if you are familiar with the U.S. Department of Education's gainful employment rule?</t>
   </si>
   <si>
@@ -277,6 +325,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    So I've only been in Congress for the last 15 months, but in that period of time, I've already been able to have hundreds of conversations with small business owners and farmers and community bankers, independent insurance agents across the rural Northeast Texas district that I represent that all those conversations end in frustration over the endless burden of regulatory agencies and rules. Sometimes it relates to ObamaCare; sometimes it relates to the EPA regulating puddles in people's backyards, or trying to tell my constituents what kind of light bulbs they have to buy, and this frustration is really heightened, because when I came into Congress, I came in as part of a historic majority here in the House, and as part of the Congress where we took over the Senate as well, and I think my constituents expected things to change, hoped that Republicans would put a stop to a run-away administrative state in this country. But admittedly, very little has changed. And we can talk about executive overreach, but I'm willing to admit and acknowledge that part of the problem here is legislative underreach, and with respect to the Chevron doctrine and other things.    So I'm certainly grateful that we're having this hearing today. We have an opportunity to talk about the possibility of solutions to this pervasive problem, and so I want to start with you, Professor Turley, because in your written testimony you said that--and I'll quote you here, ``Fear that the growth of Federal agencies is reaching a critical mass within our system, a point where rapid exponential and irreversible expansion will occur.''    So, in your opinion, first, let me ask you, what are the greatest drivers of this agency expansion? And where does Chevron fall on that list?</t>
   </si>
   <si>
@@ -302,6 +356,12 @@
   </si>
   <si>
     <t>412561</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jeffries. I thank the Chair, and I thank the witnesses for what has been a very thoughtful discussion.    Professor Turley, is it my understanding that one of your concerns with the Chevron doctrine is that the Court seems to be coming to the conclusion that the ambiguity in the statute effectively means that Congress is delegating authority to the administrative agencies? Is that right?</t>
@@ -695,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,2261 +785,2654 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G81" t="s">
+        <v>114</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G83" t="s">
+        <v>114</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G87" t="s">
+        <v>114</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G89" t="s">
+        <v>114</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G93" t="s">
+        <v>114</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99454.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t>400196</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Issa</t>
@@ -755,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,2651 +800,2856 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G81" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G87" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>130</v>
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
